--- a/ManualSteps/StarbucksHOTBeveragesAndPopularTimes.xlsx
+++ b/ManualSteps/StarbucksHOTBeveragesAndPopularTimes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Projects/ML/Jupyter/PySpark_Python-ML-Models/ManualSteps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E9A8D1-5FD1-1C42-BB9D-9DDD52AA642E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D834DE-856A-E540-B47B-5E702EAAD4CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31660" windowHeight="19480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="57">
   <si>
     <t>CoffeeType</t>
   </si>
@@ -170,6 +170,33 @@
   <si>
     <t>P20</t>
   </si>
+  <si>
+    <t>P6-P7</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>P9-P10</t>
+  </si>
+  <si>
+    <t>0 distance</t>
+  </si>
+  <si>
+    <t>1 distance</t>
+  </si>
+  <si>
+    <t>P3-P5</t>
+  </si>
+  <si>
+    <t>P4-P8</t>
+  </si>
+  <si>
+    <t>Step 3,4</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,10 +279,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -915,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Z48"/>
+  <dimension ref="A3:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="Z108" sqref="Z108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1319,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:I48" si="1">SQRT((C30-C31)^2 + (D30-D31)^2)</f>
+        <f t="shared" ref="I30" si="1">SQRT((C30-C31)^2 + (D30-D31)^2)</f>
         <v>1.4142135623730951</v>
       </c>
       <c r="J30">
@@ -1421,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J30:J48" si="2">SQRT((C31-C32)^2 + (D31-D32)^2)</f>
+        <f t="shared" ref="J31" si="2">SQRT((C31-C32)^2 + (D31-D32)^2)</f>
         <v>3</v>
       </c>
       <c r="K31">
@@ -1625,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L30:L48" si="3">SQRT((C33-C34)^2 + (D33-D34)^2)</f>
+        <f t="shared" ref="L33" si="3">SQRT((C33-C34)^2 + (D33-D34)^2)</f>
         <v>2</v>
       </c>
       <c r="M33">
@@ -1727,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M30:M48" si="4">SQRT((C34-C35)^2 + (D34-D35)^2)</f>
+        <f t="shared" ref="M34" si="4">SQRT((C34-C35)^2 + (D34-D35)^2)</f>
         <v>0</v>
       </c>
       <c r="N34">
@@ -1829,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N30:N48" si="5">SQRT((C35-C36)^2 + (D35-D36)^2)</f>
+        <f t="shared" ref="N35" si="5">SQRT((C35-C36)^2 + (D35-D36)^2)</f>
         <v>1</v>
       </c>
       <c r="O35">
@@ -2135,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" ref="Q30:Q48" si="6">SQRT((C38-C39)^2 + (D38-D39)^2)</f>
+        <f t="shared" ref="Q38" si="6">SQRT((C38-C39)^2 + (D38-D39)^2)</f>
         <v>5.0990195135927845</v>
       </c>
       <c r="R38">
@@ -2543,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U30:U48" si="7">SQRT((C42-C43)^2 + (D42-D43)^2)</f>
+        <f t="shared" ref="U42" si="7">SQRT((C42-C43)^2 + (D42-D43)^2)</f>
         <v>2.2360679774997898</v>
       </c>
       <c r="V42">
@@ -3152,6 +3186,3390 @@
       </c>
       <c r="Z48">
         <f>SQRT((C48-C48)^2 + (D48-D48)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" t="s">
+        <v>37</v>
+      </c>
+      <c r="P53" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R53" t="s">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s">
+        <v>41</v>
+      </c>
+      <c r="T53" t="s">
+        <v>42</v>
+      </c>
+      <c r="U53" t="s">
+        <v>43</v>
+      </c>
+      <c r="V53" t="s">
+        <v>44</v>
+      </c>
+      <c r="W53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X53" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J54">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="K54">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L54">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="M54">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="N54">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="O54">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="P54">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="Q54">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="R54">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="S54">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="V54">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="W54">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="X54">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="Y54">
+        <v>7.2801098892805181</v>
+      </c>
+    </row>
+    <row r="55" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J55">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K55">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L55">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M55">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="N55">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="O55">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="P55">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="U55">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="V55">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="W55">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="X55">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="Y55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H56">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M56">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="N56">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="O56">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="P56">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="Q56">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="R56">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="S56">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="T56">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U56">
+        <v>5</v>
+      </c>
+      <c r="V56">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="W56">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="X56">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="Y56">
+        <v>6.0827625302982193</v>
+      </c>
+    </row>
+    <row r="57" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H57">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="L57">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O57">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="P57">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="Q57">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="R57">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="S57">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="T57">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="W57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
+      <c r="Y57">
+        <v>6.324555320336759</v>
+      </c>
+    </row>
+    <row r="58" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H58">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O58">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="R58">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="S58">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T58">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="U58">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="V58">
+        <v>5</v>
+      </c>
+      <c r="W58">
+        <v>5</v>
+      </c>
+      <c r="X58">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="Y58">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="59" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H59">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I59">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J59">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>5</v>
+      </c>
+      <c r="Q59">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R59">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="S59">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T59">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="U59">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="V59">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="W59">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="X59">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="Y59">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="60" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H60">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="I60">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="O60">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="P60">
+        <v>6</v>
+      </c>
+      <c r="Q60">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="R60">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="S60">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="T60">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="W60">
+        <v>4</v>
+      </c>
+      <c r="X60">
+        <v>9.4339811320566032</v>
+      </c>
+      <c r="Y60">
+        <v>5.3851648071345037</v>
+      </c>
+    </row>
+    <row r="61" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="H61">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I61">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="J61">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K61">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="Q61">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="R61">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="S61">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="V61">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="W61">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="X61">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="Y61">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="62" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="H62">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I62">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="J62">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K62">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="Q62">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="R62">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="S62">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="U62">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="V62">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="W62">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="X62">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="Y62">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="63" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H63">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="I63">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="J63">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="O63">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="R63">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="S63">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="T63">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U63">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="V63">
+        <v>4</v>
+      </c>
+      <c r="W63">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="X63">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="Y63">
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="64" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="J64">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="K64">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="L64">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="M64">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="N64">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="O64">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="P64">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="U64">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="V64">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="W64">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="X64">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="Y64">
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="65" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="H65">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="I65">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="J65">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="K65">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="L65">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="M65">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="N65">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="O65">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="P65">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q65">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="T65">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="U65">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>7</v>
+      </c>
+      <c r="X65">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Y65">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="66" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="J66">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="K66">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L66">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M66">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="N66">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="O66">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="P66">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="Q66">
+        <v>3</v>
+      </c>
+      <c r="R66">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U66">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="V66">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="W66">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="X66">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="Y66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="I67">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J67">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="K67">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="L67">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M67">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q67">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R67">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="S67">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="V67">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="W67">
+        <v>5</v>
+      </c>
+      <c r="X67">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="Y67">
+        <v>4.4721359549995796</v>
+      </c>
+    </row>
+    <row r="68" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="H68">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="L68">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O68">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="P68">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="Q68">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="R68">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="S68">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T68">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="Y68">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="69" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="H69">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="I69">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="J69">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="M69">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="N69">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="O69">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="P69">
+        <v>4</v>
+      </c>
+      <c r="Q69">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="T69">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="U69">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>6</v>
+      </c>
+      <c r="X69">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Y69">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="70" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="H70">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="I70">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+      <c r="L70">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="O70">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="P70">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="Q70">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="R70">
+        <v>7</v>
+      </c>
+      <c r="S70">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="T70">
+        <v>5</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>6</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="Y70">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="71" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="H71">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="I71">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="L71">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="M71">
+        <v>9.4339811320566032</v>
+      </c>
+      <c r="N71">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="O71">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="P71">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="Q71">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="R71">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="S71">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="T71">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="U71">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="V71">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="W71">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72">
+        <v>7.2801098892805181</v>
+      </c>
+      <c r="H72">
+        <v>7</v>
+      </c>
+      <c r="I72">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="J72">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="K72">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="L72">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="M72">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="N72">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="O72">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="P72">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="Q72">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="R72">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="S72">
+        <v>3</v>
+      </c>
+      <c r="T72">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="U72">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="V72">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="W72">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="X72">
+        <v>6</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" t="s">
+        <v>48</v>
+      </c>
+      <c r="M75" t="s">
+        <v>35</v>
+      </c>
+      <c r="N75" t="s">
+        <v>51</v>
+      </c>
+      <c r="O75" t="s">
+        <v>38</v>
+      </c>
+      <c r="P75" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s">
+        <v>41</v>
+      </c>
+      <c r="S75" t="s">
+        <v>42</v>
+      </c>
+      <c r="T75" t="s">
+        <v>43</v>
+      </c>
+      <c r="U75" t="s">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s">
+        <v>46</v>
+      </c>
+      <c r="X75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J76">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="K76">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L76">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="M76">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="N76">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="O76">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="P76">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q76">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="R76">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="U76">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="V76">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="W76">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="X76">
+        <v>7.2801098892805181</v>
+      </c>
+    </row>
+    <row r="77" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J77">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K77">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L77">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M77">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="N77">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="O77">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="P77">
+        <v>5</v>
+      </c>
+      <c r="Q77">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
+      <c r="S77">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="T77">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="U77">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="V77">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="W77">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="X77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H78">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M78">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="N78">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="O78">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="P78">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="Q78">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="R78">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="S78">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T78">
+        <v>5</v>
+      </c>
+      <c r="U78">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="V78">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="W78">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="X78">
+        <v>6.0827625302982193</v>
+      </c>
+    </row>
+    <row r="79" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H79">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="L79">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O79">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="P79">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="Q79">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="R79">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="S79">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="T79">
+        <v>4</v>
+      </c>
+      <c r="U79">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="V79">
+        <v>5</v>
+      </c>
+      <c r="W79">
+        <v>10</v>
+      </c>
+      <c r="X79">
+        <v>6.324555320336759</v>
+      </c>
+    </row>
+    <row r="80" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H80">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+      <c r="P80">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="Q80">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="R80">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S80">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="T80">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="U80">
+        <v>5</v>
+      </c>
+      <c r="V80">
+        <v>5</v>
+      </c>
+      <c r="W80">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="X80">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="81" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>48</v>
+      </c>
+      <c r="G81">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H81">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I81">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J81">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="Q81">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="R81">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S81">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="T81">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="U81">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="V81">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="W81">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="X81">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="82" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H82">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="I82">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="O82">
+        <v>6</v>
+      </c>
+      <c r="P82">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="Q82">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="R82">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="S82">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="V82">
+        <v>4</v>
+      </c>
+      <c r="W82">
+        <v>9.4339811320566032</v>
+      </c>
+      <c r="X82">
+        <v>5.3851648071345037</v>
+      </c>
+    </row>
+    <row r="83" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="H83">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I83">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="J83">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K83">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="P83">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q83">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="R83">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="S83">
+        <v>3</v>
+      </c>
+      <c r="T83">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U83">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="V83">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="W83">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="X83">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="84" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H84">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="I84">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="J84">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>6</v>
+      </c>
+      <c r="N84">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q84">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="R84">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="S84">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T84">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="U84">
+        <v>4</v>
+      </c>
+      <c r="V84">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="W84">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="X84">
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="85" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="J85">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="K85">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="L85">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="M85">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="N85">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="O85">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="T85">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="U85">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="V85">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="W85">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="X85">
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="86" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="H86">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="I86">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="J86">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="K86">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="L86">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="M86">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="N86">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="O86">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="P86">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="S86">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="T86">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>7</v>
+      </c>
+      <c r="W86">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="X86">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="87" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="J87">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="K87">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L87">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M87">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="N87">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="O87">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="P87">
+        <v>3</v>
+      </c>
+      <c r="Q87">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T87">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U87">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="V87">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="W87">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="X87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="I88">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J88">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="K88">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="L88">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M88">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="P88">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Q88">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="R88">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="U88">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="V88">
+        <v>5</v>
+      </c>
+      <c r="W88">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="X88">
+        <v>4.4721359549995796</v>
+      </c>
+    </row>
+    <row r="89" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="H89">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="L89">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O89">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="P89">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="Q89">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="R89">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S89">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="X89">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="90" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="H90">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="I90">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="J90">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="K90">
+        <v>5</v>
+      </c>
+      <c r="L90">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="M90">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="N90">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="S90">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="T90">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>6</v>
+      </c>
+      <c r="W90">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="X90">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="91" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>45</v>
+      </c>
+      <c r="G91">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="H91">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="I91">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+      <c r="L91">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="O91">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="P91">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="Q91">
+        <v>7</v>
+      </c>
+      <c r="R91">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="S91">
+        <v>5</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <v>6</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="X91">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="92" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="H92">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="I92">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="J92">
+        <v>10</v>
+      </c>
+      <c r="K92">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="L92">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="M92">
+        <v>9.4339811320566032</v>
+      </c>
+      <c r="N92">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="O92">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="P92">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="Q92">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R92">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="S92">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="T92">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="U92">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="V92">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>47</v>
+      </c>
+      <c r="G93">
+        <v>7.2801098892805181</v>
+      </c>
+      <c r="H93">
+        <v>7</v>
+      </c>
+      <c r="I93">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="J93">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="K93">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="L93">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="M93">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="N93">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="O93">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="P93">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="Q93">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="T93">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="U93">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="V93">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="W93">
+        <v>6</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" t="s">
+        <v>54</v>
+      </c>
+      <c r="J96" t="s">
+        <v>55</v>
+      </c>
+      <c r="K96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M96" t="s">
+        <v>51</v>
+      </c>
+      <c r="N96" t="s">
+        <v>38</v>
+      </c>
+      <c r="O96" t="s">
+        <v>39</v>
+      </c>
+      <c r="P96" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>41</v>
+      </c>
+      <c r="R96" t="s">
+        <v>42</v>
+      </c>
+      <c r="S96" t="s">
+        <v>43</v>
+      </c>
+      <c r="T96" t="s">
+        <v>44</v>
+      </c>
+      <c r="U96" t="s">
+        <v>45</v>
+      </c>
+      <c r="V96" t="s">
+        <v>46</v>
+      </c>
+      <c r="W96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J97">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="K97">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="L97" s="3">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="M97">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="N97">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="O97">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="P97">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="Q97">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="T97">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="U97">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="V97">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="W97">
+        <v>7.2801098892805181</v>
+      </c>
+    </row>
+    <row r="98" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J98">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K98">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L98" s="3">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="M98">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="N98">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O98">
+        <v>5</v>
+      </c>
+      <c r="P98">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="S98">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="T98">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="U98">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="V98">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="W98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H99">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99" s="3">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M99">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99">
+        <v>2.83</v>
+      </c>
+      <c r="P99">
+        <v>5.66</v>
+      </c>
+      <c r="Q99">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R99">
+        <v>1.41</v>
+      </c>
+      <c r="S99">
+        <v>4.24</v>
+      </c>
+      <c r="T99">
+        <v>5</v>
+      </c>
+      <c r="U99">
+        <v>5</v>
+      </c>
+      <c r="V99">
+        <v>7.1</v>
+      </c>
+      <c r="W99">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H100">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N100">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="O100">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="P100">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="Q100">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="R100">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="U100">
+        <v>5</v>
+      </c>
+      <c r="V100">
+        <v>10</v>
+      </c>
+      <c r="W100">
+        <v>6.324555320336759</v>
+      </c>
+    </row>
+    <row r="101" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G101">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H101">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="P101">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="Q101">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="R101">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="S101">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="T101">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="U101">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="V101">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="W101">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="102" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F102" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="3">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="I102" s="3">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="N102" s="3">
+        <v>6</v>
+      </c>
+      <c r="O102" s="3">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="P102" s="3">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="R102" s="3">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="S102" s="3">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="U102" s="3">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
+        <v>9.4339811320566032</v>
+      </c>
+      <c r="W102" s="3">
+        <v>5.3851648071345037</v>
+      </c>
+    </row>
+    <row r="103" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>51</v>
+      </c>
+      <c r="G103">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="H103">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I103">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J103">
+        <v>1.41</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" s="3">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="O103">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="P103">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="Q103">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R103">
+        <v>3</v>
+      </c>
+      <c r="S103">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T103">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="U103">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="V103">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="W103">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="104" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H104">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104">
+        <v>6</v>
+      </c>
+      <c r="K104">
+        <v>5</v>
+      </c>
+      <c r="L104" s="3">
+        <v>6</v>
+      </c>
+      <c r="M104">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="P104">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q104">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R104">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S104">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="T104">
+        <v>4</v>
+      </c>
+      <c r="U104">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="V104">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="W104">
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="105" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
+        <v>2.83</v>
+      </c>
+      <c r="J105">
+        <v>5.39</v>
+      </c>
+      <c r="K105">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="L105" s="3">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="M105">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="N105">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="S105">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="T105">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U105">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="V105">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="W105">
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="106" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="H106">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="I106">
+        <v>5.66</v>
+      </c>
+      <c r="J106">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="K106">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="L106" s="3">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="M106">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="N106">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="O106">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="R106">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="S106">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>7</v>
+      </c>
+      <c r="V106">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="W106">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="107" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J107">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="K107">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L107" s="3">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="M107">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="N107">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O107">
+        <v>3</v>
+      </c>
+      <c r="P107">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S107">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T107">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="U107">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="V107">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="W107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="I108">
+        <v>1.41</v>
+      </c>
+      <c r="J108">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="K108">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="L108" s="3">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O108">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="P108">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="Q108">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="T108">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="U108">
+        <v>5</v>
+      </c>
+      <c r="V108">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="W108">
+        <v>4.4721359549995796</v>
+      </c>
+    </row>
+    <row r="109" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>43</v>
+      </c>
+      <c r="G109">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="H109">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="I109">
+        <v>4.24</v>
+      </c>
+      <c r="J109">
+        <v>4</v>
+      </c>
+      <c r="K109">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="L109" s="3">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N109">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="O109">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="P109">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="Q109">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="R109">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="W109">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="110" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>44</v>
+      </c>
+      <c r="G110">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="H110">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="I110">
+        <v>5</v>
+      </c>
+      <c r="J110">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="K110">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="L110" s="3">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="M110">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R110">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="S110">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>6</v>
+      </c>
+      <c r="V110">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="W110">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="111" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>45</v>
+      </c>
+      <c r="G111">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="H111">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="I111">
+        <v>5</v>
+      </c>
+      <c r="J111">
+        <v>5</v>
+      </c>
+      <c r="K111">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="L111" s="3">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="N111">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="O111">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="P111">
+        <v>7</v>
+      </c>
+      <c r="Q111">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="R111">
+        <v>5</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+      <c r="T111">
+        <v>6</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="W111">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="112" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>46</v>
+      </c>
+      <c r="G112">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="H112">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="I112">
+        <v>7.07</v>
+      </c>
+      <c r="J112">
+        <v>10</v>
+      </c>
+      <c r="K112">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="L112" s="3">
+        <v>9.4339811320566032</v>
+      </c>
+      <c r="M112">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="N112">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="O112">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="P112">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Q112">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="R112">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="S112">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="T112">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U112">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>47</v>
+      </c>
+      <c r="G113">
+        <v>7.2801098892805181</v>
+      </c>
+      <c r="H113">
+        <v>7</v>
+      </c>
+      <c r="I113">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J113">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="K113">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="L113" s="3">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="M113">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="N113">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="O113">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="P113">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="S113">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="T113">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="U113">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="V113">
+        <v>6</v>
+      </c>
+      <c r="W113">
         <v>0</v>
       </c>
     </row>

--- a/ManualSteps/StarbucksHOTBeveragesAndPopularTimes.xlsx
+++ b/ManualSteps/StarbucksHOTBeveragesAndPopularTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Projects/ML/Jupyter/PySpark_Python-ML-Models/ManualSteps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D834DE-856A-E540-B47B-5E702EAAD4CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ECAA88-1107-B746-B96A-E5F63736672B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31660" windowHeight="19480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
   <si>
     <t>CoffeeType</t>
   </si>
@@ -197,6 +197,12 @@
   <si>
     <t>Step 3,4</t>
   </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>P13-P17</t>
+  </si>
 </sst>
 </file>
 
@@ -248,7 +254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Z113"/>
+  <dimension ref="A3:Z130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="Z108" sqref="Z108"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75:N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3213,7 +3219,7 @@
       <c r="K53" t="s">
         <v>32</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="2" t="s">
         <v>48</v>
       </c>
       <c r="M53" t="s">
@@ -3275,7 +3281,7 @@
       <c r="K54">
         <v>2.2360679774997898</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="2">
         <v>3.6055512754639891</v>
       </c>
       <c r="M54">
@@ -3337,7 +3343,7 @@
       <c r="K55">
         <v>2.2360679774997898</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="2">
         <v>2.2360679774997898</v>
       </c>
       <c r="M55">
@@ -3399,7 +3405,7 @@
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="2">
         <v>2.2360679774997898</v>
       </c>
       <c r="M56">
@@ -3461,7 +3467,7 @@
       <c r="K57">
         <v>3.1622776601683795</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="2">
         <v>1.4142135623730951</v>
       </c>
       <c r="M57">
@@ -3523,7 +3529,7 @@
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="2">
         <v>2</v>
       </c>
       <c r="M58">
@@ -3567,64 +3573,64 @@
       </c>
     </row>
     <row r="59" spans="5:25" x14ac:dyDescent="0.2">
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>3.6055512754639891</v>
       </c>
-      <c r="H59">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="I59">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="J59">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="K59">
+      <c r="H59" s="2">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="K59" s="2">
         <v>2</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
         <v>1</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="2">
         <v>1</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="2">
         <v>1</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="2">
         <v>5</v>
       </c>
-      <c r="Q59">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="R59">
+      <c r="Q59" s="2">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R59" s="2">
         <v>7.2111025509279782</v>
       </c>
-      <c r="S59">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="T59">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="U59">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="V59">
+      <c r="S59" s="2">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T59" s="2">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="U59" s="2">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="V59" s="2">
         <v>6.4031242374328485</v>
       </c>
-      <c r="W59">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="X59">
+      <c r="W59" s="2">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="X59" s="2">
         <v>8.6023252670426267</v>
       </c>
-      <c r="Y59">
+      <c r="Y59" s="2">
         <v>5.0990195135927845</v>
       </c>
     </row>
@@ -3647,7 +3653,7 @@
       <c r="K60">
         <v>3</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <v>1</v>
       </c>
       <c r="M60">
@@ -3709,7 +3715,7 @@
       <c r="K61">
         <v>2.2360679774997898</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <v>1</v>
       </c>
       <c r="M61">
@@ -3771,7 +3777,7 @@
       <c r="K62">
         <v>2.2360679774997898</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="2">
         <v>1</v>
       </c>
       <c r="M62">
@@ -3833,7 +3839,7 @@
       <c r="K63">
         <v>3</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="2">
         <v>5</v>
       </c>
       <c r="M63">
@@ -3895,7 +3901,7 @@
       <c r="K64">
         <v>2.8284271247461903</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="2">
         <v>4.4721359549995796</v>
       </c>
       <c r="M64">
@@ -3957,7 +3963,7 @@
       <c r="K65">
         <v>5.6568542494923806</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="2">
         <v>7.2111025509279782</v>
       </c>
       <c r="M65">
@@ -4019,7 +4025,7 @@
       <c r="K66">
         <v>2.2360679774997898</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="2">
         <v>2.2360679774997898</v>
       </c>
       <c r="M66">
@@ -4081,7 +4087,7 @@
       <c r="K67">
         <v>1.4142135623730951</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="2">
         <v>3.1622776601683795</v>
       </c>
       <c r="M67">
@@ -4143,7 +4149,7 @@
       <c r="K68">
         <v>4.2426406871192848</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="2">
         <v>3.1622776601683795</v>
       </c>
       <c r="M68">
@@ -4205,7 +4211,7 @@
       <c r="K69">
         <v>5</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="2">
         <v>6.4031242374328485</v>
       </c>
       <c r="M69">
@@ -4267,7 +4273,7 @@
       <c r="K70">
         <v>5</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="2">
         <v>4.1231056256176606</v>
       </c>
       <c r="M70">
@@ -4329,7 +4335,7 @@
       <c r="K71">
         <v>7.0710678118654755</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="2">
         <v>8.6023252670426267</v>
       </c>
       <c r="M71">
@@ -4391,7 +4397,7 @@
       <c r="K72">
         <v>5.0990195135927845</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="2">
         <v>5.0990195135927845</v>
       </c>
       <c r="M72">
@@ -4464,7 +4470,7 @@
       <c r="M75" t="s">
         <v>35</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O75" t="s">
@@ -4523,7 +4529,7 @@
       <c r="M76">
         <v>4.4721359549995796</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="2">
         <v>4.2426406871192848</v>
       </c>
       <c r="O76">
@@ -4582,7 +4588,7 @@
       <c r="M77">
         <v>2.8284271247461903</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="2">
         <v>3.1622776601683795</v>
       </c>
       <c r="O77">
@@ -4641,7 +4647,7 @@
       <c r="M78">
         <v>3.1622776601683795</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="2">
         <v>2.8284271247461903</v>
       </c>
       <c r="O78">
@@ -4700,7 +4706,7 @@
       <c r="M79">
         <v>1</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="2">
         <v>2.2360679774997898</v>
       </c>
       <c r="O79">
@@ -4759,7 +4765,7 @@
       <c r="M80">
         <v>3</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="2">
         <v>2.2360679774997898</v>
       </c>
       <c r="O80">
@@ -4818,7 +4824,7 @@
       <c r="M81">
         <v>1</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="2">
         <v>1</v>
       </c>
       <c r="O81">
@@ -4877,7 +4883,7 @@
       <c r="M82">
         <v>0</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="2">
         <v>1.4142135623730951</v>
       </c>
       <c r="O82">
@@ -4912,61 +4918,61 @@
       </c>
     </row>
     <row r="83" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <v>4.2426406871192848</v>
       </c>
-      <c r="H83">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="I83">
+      <c r="H83" s="2">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I83" s="2">
         <v>2.8284271247461903</v>
       </c>
-      <c r="J83">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="K83">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="L83">
+      <c r="J83" s="2">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K83" s="2">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L83" s="2">
         <v>1</v>
       </c>
-      <c r="M83">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
+      <c r="M83" s="2">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
         <v>5.0990195135927845</v>
       </c>
-      <c r="P83">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="Q83">
+      <c r="P83" s="2">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q83" s="2">
         <v>6.7082039324993694</v>
       </c>
-      <c r="R83">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
-      <c r="T83">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="U83">
+      <c r="R83" s="2">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="S83" s="2">
+        <v>3</v>
+      </c>
+      <c r="T83" s="2">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U83" s="2">
         <v>5.8309518948453007</v>
       </c>
-      <c r="V83">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="W83">
+      <c r="V83" s="2">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="W83" s="2">
         <v>8.0622577482985491</v>
       </c>
-      <c r="X83">
+      <c r="X83" s="2">
         <v>4.1231056256176606</v>
       </c>
     </row>
@@ -4995,7 +5001,7 @@
       <c r="M84">
         <v>6</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="2">
         <v>5.0990195135927845</v>
       </c>
       <c r="O84">
@@ -5054,7 +5060,7 @@
       <c r="M85">
         <v>5.3851648071345037</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="2">
         <v>4.1231056256176606</v>
       </c>
       <c r="O85">
@@ -5113,7 +5119,7 @@
       <c r="M86">
         <v>8.0622577482985491</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="2">
         <v>6.7082039324993694</v>
       </c>
       <c r="O86">
@@ -5172,7 +5178,7 @@
       <c r="M87">
         <v>2.8284271247461903</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="2">
         <v>1.4142135623730951</v>
       </c>
       <c r="O87">
@@ -5231,7 +5237,7 @@
       <c r="M88">
         <v>4.1231056256176606</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="2">
         <v>3</v>
       </c>
       <c r="O88">
@@ -5290,7 +5296,7 @@
       <c r="M89">
         <v>3</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="2">
         <v>2.2360679774997898</v>
       </c>
       <c r="O89">
@@ -5349,7 +5355,7 @@
       <c r="M90">
         <v>7.2111025509279782</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="2">
         <v>5.8309518948453007</v>
       </c>
       <c r="O90">
@@ -5408,7 +5414,7 @@
       <c r="M91">
         <v>4</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="2">
         <v>3.1622776601683795</v>
       </c>
       <c r="O91">
@@ -5467,7 +5473,7 @@
       <c r="M92">
         <v>9.4339811320566032</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="2">
         <v>8.0622577482985491</v>
       </c>
       <c r="O92">
@@ -5526,7 +5532,7 @@
       <c r="M93">
         <v>5.3851648071345037</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="2">
         <v>4.1231056256176606</v>
       </c>
       <c r="O93">
@@ -5575,53 +5581,50 @@
       <c r="H96" t="s">
         <v>29</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K96" t="s">
         <v>48</v>
       </c>
-      <c r="L96" s="3" t="s">
-        <v>35</v>
+      <c r="L96" t="s">
+        <v>51</v>
       </c>
       <c r="M96" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V96" t="s">
-        <v>46</v>
-      </c>
-      <c r="W96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F97" t="s">
         <v>28</v>
       </c>
@@ -5631,53 +5634,50 @@
       <c r="H97">
         <v>2</v>
       </c>
-      <c r="I97">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="J97">
+      <c r="I97" s="3">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J97" s="2">
         <v>4.1231056256176606</v>
       </c>
       <c r="K97">
         <v>3.6055512754639891</v>
       </c>
-      <c r="L97" s="3">
-        <v>4.4721359549995796</v>
+      <c r="L97">
+        <v>4.2426406871192848</v>
       </c>
       <c r="M97">
-        <v>4.2426406871192848</v>
+        <v>2.8284271247461903</v>
       </c>
       <c r="N97">
-        <v>2.8284271247461903</v>
+        <v>4.1231056256176606</v>
       </c>
       <c r="O97">
-        <v>4.1231056256176606</v>
+        <v>6.7082039324993694</v>
       </c>
       <c r="P97">
-        <v>6.7082039324993694</v>
+        <v>4.4721359549995796</v>
       </c>
       <c r="Q97">
-        <v>4.4721359549995796</v>
+        <v>3</v>
       </c>
       <c r="R97">
-        <v>3</v>
+        <v>6.4031242374328485</v>
       </c>
       <c r="S97">
-        <v>6.4031242374328485</v>
+        <v>6.324555320336759</v>
       </c>
       <c r="T97">
-        <v>6.324555320336759</v>
+        <v>7.2111025509279782</v>
       </c>
       <c r="U97">
-        <v>7.2111025509279782</v>
+        <v>8.0622577482985491</v>
       </c>
       <c r="V97">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="W97">
         <v>7.2801098892805181</v>
       </c>
     </row>
-    <row r="98" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F98" t="s">
         <v>29</v>
       </c>
@@ -5687,165 +5687,156 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="J98">
+      <c r="I98" s="3">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J98" s="2">
         <v>2.2360679774997898</v>
       </c>
       <c r="K98">
         <v>2.2360679774997898</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M98">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="P98">
+        <v>4</v>
+      </c>
+      <c r="Q98">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="R98">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="S98">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="T98">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="U98">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="V98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3">
+        <v>3</v>
+      </c>
+      <c r="K99" s="3">
+        <v>2</v>
+      </c>
+      <c r="L99" s="3">
         <v>2.8284271247461903</v>
       </c>
-      <c r="M98">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="N98">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="O98">
+      <c r="M99" s="3">
+        <v>3</v>
+      </c>
+      <c r="N99" s="3">
+        <v>2.83</v>
+      </c>
+      <c r="O99" s="3">
+        <v>5.66</v>
+      </c>
+      <c r="P99" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="R99" s="3">
+        <v>4.24</v>
+      </c>
+      <c r="S99" s="3">
         <v>5</v>
       </c>
-      <c r="P98">
-        <v>7.810249675906654</v>
-      </c>
-      <c r="Q98">
+      <c r="T99" s="3">
+        <v>5</v>
+      </c>
+      <c r="U99" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="V99" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="2">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H100" s="2">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2">
+        <v>1</v>
+      </c>
+      <c r="L100" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="M100" s="2">
+        <v>6</v>
+      </c>
+      <c r="N100" s="2">
+        <v>5.3849999999999998</v>
+      </c>
+      <c r="O100" s="2">
+        <v>8.0619999999999994</v>
+      </c>
+      <c r="P100" s="2">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="R100" s="2">
+        <v>3</v>
+      </c>
+      <c r="S100" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="T100" s="2">
         <v>4</v>
       </c>
-      <c r="R98">
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="S98">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="T98">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="U98">
-        <v>6.324555320336759</v>
-      </c>
-      <c r="V98">
-        <v>9.2195444572928871</v>
-      </c>
-      <c r="W98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F99" t="s">
-        <v>54</v>
-      </c>
-      <c r="G99">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="H99">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>3</v>
-      </c>
-      <c r="K99">
-        <v>2</v>
-      </c>
-      <c r="L99" s="3">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="M99">
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="N99">
-        <v>3</v>
-      </c>
-      <c r="O99">
-        <v>2.83</v>
-      </c>
-      <c r="P99">
-        <v>5.66</v>
-      </c>
-      <c r="Q99">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="R99">
-        <v>1.41</v>
-      </c>
-      <c r="S99">
-        <v>4.24</v>
-      </c>
-      <c r="T99">
-        <v>5</v>
-      </c>
-      <c r="U99">
-        <v>5</v>
-      </c>
-      <c r="V99">
-        <v>7.1</v>
-      </c>
-      <c r="W99">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="100" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F100" t="s">
-        <v>55</v>
-      </c>
-      <c r="G100">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="H100">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="N100">
-        <v>6.0827625302982193</v>
-      </c>
-      <c r="O100">
-        <v>5.8309518948453007</v>
-      </c>
-      <c r="P100">
-        <v>8.6023252670426267</v>
-      </c>
-      <c r="Q100">
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="R100">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="S100">
-        <v>4</v>
-      </c>
-      <c r="T100">
-        <v>7.810249675906654</v>
-      </c>
-      <c r="U100">
-        <v>5</v>
-      </c>
-      <c r="V100">
-        <v>10</v>
-      </c>
-      <c r="W100">
-        <v>6.324555320336759</v>
-      </c>
-    </row>
-    <row r="101" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="U100" s="2">
+        <v>9.43</v>
+      </c>
+      <c r="V100" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="101" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F101" t="s">
         <v>48</v>
       </c>
@@ -5855,721 +5846,1434 @@
       <c r="H101">
         <v>2.2360679774997898</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>2</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="2">
         <v>1</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101">
         <v>1</v>
       </c>
       <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O101">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="P101">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q101">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="R101">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="S101">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="T101">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="U101">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="V101">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="102" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>51</v>
+      </c>
+      <c r="G102">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="H102">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="K102">
         <v>1</v>
       </c>
-      <c r="N101">
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="N102">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="O102">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="P102">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S102">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="T102">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="U102">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="V102">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="103" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H103">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="I103" s="3">
+        <v>3</v>
+      </c>
+      <c r="J103" s="2">
+        <v>6</v>
+      </c>
+      <c r="K103">
         <v>5</v>
       </c>
-      <c r="O101">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="P101">
+      <c r="L103">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O103">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="P103">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="Q103">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="R103">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="S103">
+        <v>4</v>
+      </c>
+      <c r="T103">
         <v>7.2111025509279782</v>
       </c>
-      <c r="Q101">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="R101">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="S101">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="T101">
+      <c r="U103">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="V103">
         <v>6.4031242374328485</v>
       </c>
-      <c r="U101">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="V101">
+    </row>
+    <row r="104" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
+      </c>
+      <c r="I104" s="3">
+        <v>2.83</v>
+      </c>
+      <c r="J104" s="2">
+        <v>5.39</v>
+      </c>
+      <c r="K104">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="L104">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M104">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="P104">
+        <v>3</v>
+      </c>
+      <c r="Q104">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R104">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="S104">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T104">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="U104">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="V104">
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="105" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="H105">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="I105" s="3">
+        <v>5.66</v>
+      </c>
+      <c r="J105" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="K105">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="L105">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="M105">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="N105">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="Q105">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="R105">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>7</v>
+      </c>
+      <c r="U105">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="V105">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="106" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J106" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="K106">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L106">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="M106">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="R106">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S106">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="T106">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="U106">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="J107" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="K107">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N107">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="O107">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="P107">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="S107">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="T107">
+        <v>5</v>
+      </c>
+      <c r="U107">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="V107">
+        <v>4.4721359549995796</v>
+      </c>
+    </row>
+    <row r="108" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="H108">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="I108" s="3">
+        <v>4.24</v>
+      </c>
+      <c r="J108" s="2">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="L108">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M108">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="N108">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="O108">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="P108">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q108">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="U108">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="V108">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="109" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>44</v>
+      </c>
+      <c r="G109">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="H109">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="I109" s="3">
+        <v>5</v>
+      </c>
+      <c r="J109" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="K109">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="L109">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="Q109">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="R109">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>6</v>
+      </c>
+      <c r="U109">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="V109">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="110" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>45</v>
+      </c>
+      <c r="G110">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="H110">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="I110" s="3">
+        <v>5</v>
+      </c>
+      <c r="J110" s="2">
+        <v>4</v>
+      </c>
+      <c r="K110">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="L110">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M110">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="N110">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="O110">
+        <v>7</v>
+      </c>
+      <c r="P110">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>6</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="V110">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="111" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>46</v>
+      </c>
+      <c r="G111">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="H111">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="I111" s="3">
+        <v>7.07</v>
+      </c>
+      <c r="J111" s="2">
+        <v>9.43</v>
+      </c>
+      <c r="K111">
         <v>8.6023252670426267</v>
       </c>
-      <c r="W101">
+      <c r="L111">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="M111">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="N111">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="O111">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="P111">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="Q111">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="R111">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="S111">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T111">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>47</v>
+      </c>
+      <c r="G112">
+        <v>7.2801098892805181</v>
+      </c>
+      <c r="H112">
+        <v>7</v>
+      </c>
+      <c r="I112" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J112" s="2">
+        <v>5.39</v>
+      </c>
+      <c r="K112">
         <v>5.0990195135927845</v>
       </c>
-    </row>
-    <row r="102" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F102" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" s="3">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="L112">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M112">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="N112">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="O112">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="P112">
+        <v>3</v>
+      </c>
+      <c r="Q112">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R112">
         <v>2.8284271247461903</v>
       </c>
-      <c r="I102" s="3">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="S112">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="T112">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="U112">
+        <v>6</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>53</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" t="s">
+        <v>54</v>
+      </c>
+      <c r="J115" t="s">
+        <v>55</v>
+      </c>
+      <c r="K115" t="s">
+        <v>48</v>
+      </c>
+      <c r="L115" t="s">
+        <v>51</v>
+      </c>
+      <c r="M115" t="s">
+        <v>38</v>
+      </c>
+      <c r="N115" t="s">
+        <v>39</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P115" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>42</v>
+      </c>
+      <c r="R115" t="s">
+        <v>43</v>
+      </c>
+      <c r="S115" t="s">
+        <v>45</v>
+      </c>
+      <c r="T115" t="s">
+        <v>46</v>
+      </c>
+      <c r="U115" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J116">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="K116">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="L116">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="M116">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="N116">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="O116" s="2">
+        <v>6.33</v>
+      </c>
+      <c r="P116">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="Q116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="S116">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="T116">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="U116">
+        <v>7.2801098892805181</v>
+      </c>
+    </row>
+    <row r="117" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J117">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K117">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L117">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M117">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="P117">
+        <v>4</v>
+      </c>
+      <c r="Q117">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="R117">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="S117">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="T117">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="U117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H118">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>3</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>2.83</v>
+      </c>
+      <c r="O118" s="2">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Q118">
+        <v>1.41</v>
+      </c>
+      <c r="R118">
+        <v>4.24</v>
+      </c>
+      <c r="S118">
+        <v>5</v>
+      </c>
+      <c r="T118">
+        <v>7.1</v>
+      </c>
+      <c r="U118">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>55</v>
+      </c>
+      <c r="G119">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H119">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
         <v>1</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L119">
+        <v>1.41</v>
+      </c>
+      <c r="M119">
+        <v>6</v>
+      </c>
+      <c r="N119">
+        <v>5.3849999999999998</v>
+      </c>
+      <c r="O119" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="P119">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="Q119">
+        <v>4.12</v>
+      </c>
+      <c r="R119">
+        <v>3</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>9.43</v>
+      </c>
+      <c r="U119">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="120" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>48</v>
+      </c>
+      <c r="G120">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H120">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
         <v>1</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>5</v>
+      </c>
+      <c r="N120">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O120" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="P120">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q120">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="R120">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="S120">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="T120">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="U120">
+        <v>5.0990195135927845</v>
+      </c>
+    </row>
+    <row r="121" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>51</v>
+      </c>
+      <c r="G121">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="H121">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="I121">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J121">
+        <v>1.41</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="N121">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="O121" s="2">
+        <v>5.83</v>
+      </c>
+      <c r="P121">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S121">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="T121">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="U121">
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="122" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H122">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
         <v>6</v>
       </c>
-      <c r="O102" s="3">
+      <c r="K122">
+        <v>5</v>
+      </c>
+      <c r="L122">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="O122" s="2">
+        <v>4</v>
+      </c>
+      <c r="P122">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="Q122">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="R122">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="S122">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="T122">
         <v>5.3851648071345037</v>
       </c>
-      <c r="P102" s="3">
+      <c r="U122">
+        <v>6.4031242374328485</v>
+      </c>
+    </row>
+    <row r="123" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
+      <c r="I123">
+        <v>2.83</v>
+      </c>
+      <c r="J123">
+        <v>5.39</v>
+      </c>
+      <c r="K123">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="L123">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M123">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R123">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="S123">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="T123">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="U123">
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="124" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+      <c r="G124" s="2">
+        <v>6.33</v>
+      </c>
+      <c r="H124" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="I124" s="2">
+        <v>5</v>
+      </c>
+      <c r="J124" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="K124" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="L124" s="2">
+        <v>5.83</v>
+      </c>
+      <c r="M124" s="2">
+        <v>4</v>
+      </c>
+      <c r="N124" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="O124" s="2">
+        <v>0</v>
+      </c>
+      <c r="P124" s="2">
+        <v>4.47</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="R124" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="S124" s="2">
+        <v>6</v>
+      </c>
+      <c r="T124" s="2">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="U124" s="2">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="125" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J125">
+        <v>2.83</v>
+      </c>
+      <c r="K125">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="L125">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="M125">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" s="2">
+        <v>4.47</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="R125">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="S125">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="T125">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="U125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="I126">
+        <v>1.41</v>
+      </c>
+      <c r="J126">
+        <v>4.12</v>
+      </c>
+      <c r="K126">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N126">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="O126" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="P126">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="S126">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="U126">
+        <v>4.4721359549995796</v>
+      </c>
+    </row>
+    <row r="127" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="H127">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="I127">
+        <v>4.24</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="L127">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M127">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="N127">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="O127" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="P127">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="Q127">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="U127">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="128" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>45</v>
+      </c>
+      <c r="G128">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="H128">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="I128">
+        <v>5</v>
+      </c>
+      <c r="J128">
+        <v>4</v>
+      </c>
+      <c r="K128">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="L128">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M128">
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="N128">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="O128" s="2">
+        <v>6</v>
+      </c>
+      <c r="P128">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="Q128">
+        <v>5</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
         <v>8.0622577482985491</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="U128">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="129" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>46</v>
+      </c>
+      <c r="G129">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="H129">
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="I129">
+        <v>7.07</v>
+      </c>
+      <c r="J129">
+        <v>9.43</v>
+      </c>
+      <c r="K129">
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="L129">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="M129">
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="N129">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="O129" s="2">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="P129">
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="Q129">
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="R129">
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="S129">
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>47</v>
+      </c>
+      <c r="G130">
+        <v>7.2801098892805181</v>
+      </c>
+      <c r="H130">
+        <v>7</v>
+      </c>
+      <c r="I130">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J130">
+        <v>5.39</v>
+      </c>
+      <c r="K130">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="L130">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M130">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="N130">
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="O130" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="P130">
+        <v>3</v>
+      </c>
+      <c r="Q130">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R130">
         <v>2.8284271247461903</v>
       </c>
-      <c r="R102" s="3">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="S102" s="3">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="U102" s="3">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
-        <v>9.4339811320566032</v>
-      </c>
-      <c r="W102" s="3">
-        <v>5.3851648071345037</v>
-      </c>
-    </row>
-    <row r="103" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F103" t="s">
-        <v>51</v>
-      </c>
-      <c r="G103">
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="H103">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="I103">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="J103">
-        <v>1.41</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" s="3">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="O103">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="P103">
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="Q103">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="R103">
-        <v>3</v>
-      </c>
-      <c r="S103">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="T103">
-        <v>5.8309518948453007</v>
-      </c>
-      <c r="U103">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="V103">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="W103">
-        <v>4.1231056256176606</v>
-      </c>
-    </row>
-    <row r="104" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F104" t="s">
-        <v>38</v>
-      </c>
-      <c r="G104">
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="H104">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
-      </c>
-      <c r="J104">
+      <c r="S130">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="T130">
         <v>6</v>
       </c>
-      <c r="K104">
-        <v>5</v>
-      </c>
-      <c r="L104" s="3">
-        <v>6</v>
-      </c>
-      <c r="M104">
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="P104">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="Q104">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="R104">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="S104">
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="T104">
-        <v>4</v>
-      </c>
-      <c r="U104">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="V104">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="W104">
-        <v>6.4031242374328485</v>
-      </c>
-    </row>
-    <row r="105" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F105" t="s">
-        <v>39</v>
-      </c>
-      <c r="G105">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="H105">
-        <v>5</v>
-      </c>
-      <c r="I105">
-        <v>2.83</v>
-      </c>
-      <c r="J105">
-        <v>5.39</v>
-      </c>
-      <c r="K105">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="L105" s="3">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="M105">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="N105">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="P105">
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="Q105">
-        <v>3</v>
-      </c>
-      <c r="R105">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="S105">
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="T105">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="U105">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="V105">
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="W105">
-        <v>4.2426406871192848</v>
-      </c>
-    </row>
-    <row r="106" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F106" t="s">
-        <v>40</v>
-      </c>
-      <c r="G106">
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="H106">
-        <v>7.810249675906654</v>
-      </c>
-      <c r="I106">
-        <v>5.66</v>
-      </c>
-      <c r="J106">
-        <v>8.6023252670426267</v>
-      </c>
-      <c r="K106">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="L106" s="3">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="M106">
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="N106">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="O106">
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="R106">
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="S106">
-        <v>7.0710678118654755</v>
-      </c>
-      <c r="T106">
-        <v>1</v>
-      </c>
-      <c r="U106">
-        <v>7</v>
-      </c>
-      <c r="V106">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="W106">
-        <v>5.0990195135927845</v>
-      </c>
-    </row>
-    <row r="107" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F107" t="s">
-        <v>41</v>
-      </c>
-      <c r="G107">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="H107">
-        <v>4</v>
-      </c>
-      <c r="I107">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="J107">
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="K107">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="L107" s="3">
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="M107">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="N107">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="O107">
-        <v>3</v>
-      </c>
-      <c r="P107">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="S107">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="T107">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="U107">
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="V107">
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="W107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F108" t="s">
-        <v>42</v>
-      </c>
-      <c r="G108">
-        <v>3</v>
-      </c>
-      <c r="H108">
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="I108">
-        <v>1.41</v>
-      </c>
-      <c r="J108">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="K108">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="L108" s="3">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="M108">
-        <v>3</v>
-      </c>
-      <c r="N108">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="O108">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="P108">
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="Q108">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-      <c r="S108">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="T108">
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="U108">
-        <v>5</v>
-      </c>
-      <c r="V108">
-        <v>5.6568542494923806</v>
-      </c>
-      <c r="W108">
-        <v>4.4721359549995796</v>
-      </c>
-    </row>
-    <row r="109" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F109" t="s">
-        <v>43</v>
-      </c>
-      <c r="G109">
-        <v>6.4031242374328485</v>
-      </c>
-      <c r="H109">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="I109">
-        <v>4.24</v>
-      </c>
-      <c r="J109">
-        <v>4</v>
-      </c>
-      <c r="K109">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="L109" s="3">
-        <v>3</v>
-      </c>
-      <c r="M109">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="N109">
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="O109">
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="P109">
-        <v>7.0710678118654755</v>
-      </c>
-      <c r="Q109">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="R109">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <v>6.0827625302982193</v>
-      </c>
-      <c r="U109">
-        <v>1</v>
-      </c>
-      <c r="V109">
-        <v>8.2462112512353212</v>
-      </c>
-      <c r="W109">
-        <v>2.8284271247461903</v>
-      </c>
-    </row>
-    <row r="110" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F110" t="s">
-        <v>44</v>
-      </c>
-      <c r="G110">
-        <v>6.324555320336759</v>
-      </c>
-      <c r="H110">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="I110">
-        <v>5</v>
-      </c>
-      <c r="J110">
-        <v>7.810249675906654</v>
-      </c>
-      <c r="K110">
-        <v>6.4031242374328485</v>
-      </c>
-      <c r="L110" s="3">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="M110">
-        <v>5.8309518948453007</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-      <c r="Q110">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="R110">
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="S110">
-        <v>6.0827625302982193</v>
-      </c>
-      <c r="T110">
-        <v>0</v>
-      </c>
-      <c r="U110">
-        <v>6</v>
-      </c>
-      <c r="V110">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="W110">
-        <v>4.1231056256176606</v>
-      </c>
-    </row>
-    <row r="111" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F111" t="s">
-        <v>45</v>
-      </c>
-      <c r="G111">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="H111">
-        <v>6.324555320336759</v>
-      </c>
-      <c r="I111">
-        <v>5</v>
-      </c>
-      <c r="J111">
-        <v>5</v>
-      </c>
-      <c r="K111">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="L111" s="3">
-        <v>4</v>
-      </c>
-      <c r="M111">
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="N111">
-        <v>7.2111025509279782</v>
-      </c>
-      <c r="O111">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="P111">
-        <v>7</v>
-      </c>
-      <c r="Q111">
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="R111">
-        <v>5</v>
-      </c>
-      <c r="S111">
-        <v>1</v>
-      </c>
-      <c r="T111">
-        <v>6</v>
-      </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
-      <c r="V111">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="W111">
-        <v>2.2360679774997898</v>
-      </c>
-    </row>
-    <row r="112" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F112" t="s">
-        <v>46</v>
-      </c>
-      <c r="G112">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="H112">
-        <v>9.2195444572928871</v>
-      </c>
-      <c r="I112">
-        <v>7.07</v>
-      </c>
-      <c r="J112">
-        <v>10</v>
-      </c>
-      <c r="K112">
-        <v>8.6023252670426267</v>
-      </c>
-      <c r="L112" s="3">
-        <v>9.4339811320566032</v>
-      </c>
-      <c r="M112">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="N112">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="O112">
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="P112">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="Q112">
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="R112">
-        <v>5.6568542494923806</v>
-      </c>
-      <c r="S112">
-        <v>8.2462112512353212</v>
-      </c>
-      <c r="T112">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="U112">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="W112">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
-      <c r="G113">
-        <v>7.2801098892805181</v>
-      </c>
-      <c r="H113">
-        <v>7</v>
-      </c>
-      <c r="I113">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J113">
-        <v>6.324555320336759</v>
-      </c>
-      <c r="K113">
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="L113" s="3">
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="M113">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="N113">
-        <v>6.4031242374328485</v>
-      </c>
-      <c r="O113">
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="P113">
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="Q113">
-        <v>3</v>
-      </c>
-      <c r="R113">
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="S113">
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="T113">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="U113">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="V113">
-        <v>6</v>
-      </c>
-      <c r="W113">
+      <c r="U130">
         <v>0</v>
       </c>
     </row>
